--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         <v>197</v>
       </c>
       <c r="D34" t="n">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1645,18 +1645,46 @@
         <v>197</v>
       </c>
       <c r="D35" t="n">
+        <v>148</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>49</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>197</v>
+      </c>
+      <c r="D36" t="n">
         <v>144</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>53</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,35 +822,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>316</v>
+        <v>581</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,63 +934,63 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>895</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>895</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1001,13 +1001,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,91 +1046,91 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45847</v>
+        <v>45846</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45846</v>
+        <v>45845</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>895</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1190,14 +1190,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1218,14 +1218,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1246,14 +1246,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1262,256 +1262,256 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>494</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45846</v>
+        <v>45847</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45845</v>
+        <v>45846</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>494</v>
+        <v>907</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45845</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>276</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>276</v>
+        <v>495</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>276</v>
+        <v>495</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>276</v>
+        <v>494</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45846</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>832</v>
+        <v>495</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>273</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1522,114 +1522,114 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45847</v>
+        <v>45845</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>6</v>
+        <v>494</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>191</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>1129</v>
+        <v>236</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>1130</v>
+        <v>276</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45847</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>276</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -1638,26 +1638,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D35" t="n">
-        <v>148</v>
+        <v>276</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -1666,25 +1666,249 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>288</v>
+      </c>
+      <c r="D36" t="n">
+        <v>276</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>6</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D38" t="n">
+        <v>832</v>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="n">
+        <v>273</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>197</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
+        <v>6</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>191</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>197</v>
+      </c>
+      <c r="D42" t="n">
+        <v>108</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>89</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45846</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>197</v>
+      </c>
+      <c r="D43" t="n">
+        <v>148</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>49</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>197</v>
+      </c>
+      <c r="D44" t="n">
         <v>144</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>53</v>
       </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,35 +738,35 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45848</v>
+        <v>45850</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>197</v>
       </c>
       <c r="D3" t="n">
-        <v>571</v>
+        <v>148</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,35 +822,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45845</v>
+        <v>45847</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>581</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>191</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,18 +934,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -954,26 +954,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,15 +982,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1001,13 +1001,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1018,114 +1018,114 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45847</v>
+        <v>45849</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45846</v>
+        <v>45848</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>895</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45845</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>895</v>
+        <v>907</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,110 +1178,110 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45847</v>
+        <v>45852</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D19" t="n">
-        <v>923</v>
+        <v>495</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45846</v>
+        <v>45849</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D20" t="n">
-        <v>923</v>
+        <v>495</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45845</v>
+        <v>45848</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D21" t="n">
-        <v>923</v>
+        <v>495</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>277</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1290,82 +1290,82 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>236</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D24" t="n">
-        <v>907</v>
+        <v>276</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45846</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>1130</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1374,60 +1374,60 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45845</v>
+        <v>45849</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>945</v>
+        <v>1142</v>
       </c>
       <c r="D26" t="n">
-        <v>907</v>
+        <v>1124</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G26" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>509</v>
+        <v>1142</v>
       </c>
       <c r="D27" t="n">
-        <v>495</v>
+        <v>832</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>2</v>
+        <v>273</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1438,477 +1438,57 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>509</v>
+        <v>197</v>
       </c>
       <c r="D28" t="n">
-        <v>495</v>
+        <v>127</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>509</v>
+        <v>197</v>
       </c>
       <c r="D29" t="n">
-        <v>494</v>
+        <v>108</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>509</v>
-      </c>
-      <c r="D30" t="n">
-        <v>495</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>509</v>
-      </c>
-      <c r="D31" t="n">
-        <v>494</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>3</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>288</v>
-      </c>
-      <c r="D32" t="n">
-        <v>236</v>
-      </c>
-      <c r="E32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F32" t="n">
-        <v>37</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>288</v>
-      </c>
-      <c r="D33" t="n">
-        <v>276</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>288</v>
-      </c>
-      <c r="D34" t="n">
-        <v>276</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>288</v>
-      </c>
-      <c r="D35" t="n">
-        <v>276</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>288</v>
-      </c>
-      <c r="D36" t="n">
-        <v>276</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1124</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>6</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D38" t="n">
-        <v>832</v>
-      </c>
-      <c r="E38" t="n">
-        <v>25</v>
-      </c>
-      <c r="F38" t="n">
-        <v>273</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>197</v>
-      </c>
-      <c r="D39" t="n">
-        <v>6</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>191</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D40" t="n">
-        <v>1129</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D41" t="n">
-        <v>1130</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>197</v>
-      </c>
-      <c r="D42" t="n">
-        <v>108</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>89</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>45846</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>197</v>
-      </c>
-      <c r="D43" t="n">
-        <v>148</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>49</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>197</v>
-      </c>
-      <c r="D44" t="n">
-        <v>144</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>53</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,63 +738,63 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>148</v>
+        <v>579</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>197</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>148</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,35 +822,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45847</v>
+        <v>45848</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
+        <v>580</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>191</v>
+        <v>9</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,18 +934,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45848</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -954,15 +954,15 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1001,13 +1001,13 @@
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>15</v>
@@ -1018,18 +1018,18 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1038,26 +1038,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1066,15 +1066,15 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45848</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1106,14 +1106,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,110 +1178,110 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45848</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>277</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1290,88 +1290,88 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45849</v>
+        <v>45853</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>236</v>
+        <v>495</v>
       </c>
       <c r="E23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45848</v>
+        <v>45852</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>276</v>
+        <v>495</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45849</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>1130</v>
+        <v>495</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1382,113 +1382,309 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45849</v>
+        <v>45848</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>1124</v>
+        <v>277</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45848</v>
+        <v>45853</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
-        <v>832</v>
+        <v>277</v>
       </c>
       <c r="E27" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D28" t="n">
-        <v>127</v>
+        <v>277</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>288</v>
+      </c>
+      <c r="D29" t="n">
+        <v>236</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4</v>
+      </c>
+      <c r="F29" t="n">
+        <v>37</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2</v>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>45848</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D30" t="n">
+        <v>832</v>
+      </c>
+      <c r="E30" t="n">
+        <v>25</v>
+      </c>
+      <c r="F30" t="n">
+        <v>273</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1127</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>6</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>197</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>108</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>89</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>197</v>
+      </c>
+      <c r="D35" t="n">
+        <v>141</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>56</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>197</v>
+      </c>
+      <c r="D36" t="n">
+        <v>127</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>70</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,8 +660,8 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="4" customWidth="1" min="5" max="5"/>
-    <col width="5" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -710,35 +710,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>581</v>
+        <v>316</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,63 +766,63 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>148</v>
+        <v>579</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>581</v>
+        <v>148</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -850,18 +850,18 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D7" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -870,15 +870,15 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,18 +962,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,15 +982,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1074,18 +1074,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,15 +1094,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,18 +1186,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>495</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,15 +1206,15 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,18 +1298,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D23" t="n">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1321,12 +1321,12 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1343,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
         <v>2</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>12</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
         <v>288</v>
       </c>
       <c r="D26" t="n">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1410,35 +1410,35 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1477,13 +1477,13 @@
         <v>288</v>
       </c>
       <c r="D29" t="n">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45848</v>
+        <v>45849</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
         <v>1142</v>
       </c>
       <c r="D30" t="n">
-        <v>832</v>
+        <v>1124</v>
       </c>
       <c r="E30" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1582,31 +1582,31 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1142</v>
+        <v>197</v>
       </c>
       <c r="D33" t="n">
-        <v>1124</v>
+        <v>127</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45848</v>
+        <v>45853</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
         <v>197</v>
       </c>
       <c r="D34" t="n">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1657,34 +1657,6 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>197</v>
-      </c>
-      <c r="D36" t="n">
-        <v>127</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>70</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -660,7 +660,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="5" max="5"/>
     <col width="4" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -710,63 +710,63 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>316</v>
+        <v>582</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D3" t="n">
-        <v>581</v>
+        <v>316</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,74 +794,74 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>148</v>
+        <v>579</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45849</v>
+        <v>45850</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>197</v>
       </c>
       <c r="D6" t="n">
-        <v>583</v>
+        <v>148</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D7" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -870,26 +870,26 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -898,15 +898,15 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,18 +962,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,26 +982,26 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1010,15 +1010,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1074,18 +1074,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,26 +1094,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,15 +1122,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,18 +1186,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,26 +1206,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>495</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,15 +1234,15 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,18 +1298,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1321,23 +1321,23 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D24" t="n">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1349,12 +1349,12 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1371,10 +1371,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
         <v>2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>12</v>
@@ -1382,91 +1382,91 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D26" t="n">
-        <v>162</v>
+        <v>495</v>
       </c>
       <c r="E26" t="n">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>288</v>
       </c>
       <c r="D27" t="n">
+        <v>277</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
         <v>2</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
-        <v>277</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1494,35 +1494,35 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D30" t="n">
-        <v>1124</v>
+        <v>277</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1533,10 +1533,10 @@
         <v>1142</v>
       </c>
       <c r="D31" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="E31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1561,13 +1561,13 @@
         <v>1142</v>
       </c>
       <c r="D32" t="n">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1578,30 +1578,30 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45849</v>
+        <v>45852</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>197</v>
+        <v>1142</v>
       </c>
       <c r="D33" t="n">
-        <v>127</v>
+        <v>1130</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34">

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,63 +738,63 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>316</v>
+        <v>582</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>316</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,35 +822,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45850</v>
+        <v>45852</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>579</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,18 +878,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -898,26 +898,26 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -926,15 +926,15 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,18 +962,18 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,26 +982,26 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1010,15 +1010,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,18 +1046,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45852</v>
+        <v>45854</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1066,26 +1066,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45855</v>
+        <v>45853</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,26 +1094,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45854</v>
+        <v>45852</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1125,12 +1125,12 @@
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45855</v>
+        <v>45854</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1214,18 +1214,18 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45854</v>
+        <v>45853</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>495</v>
+        <v>923</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,26 +1234,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1262,15 +1262,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1302,14 +1302,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1318,10 +1318,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
@@ -1330,14 +1330,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1349,7 +1349,7 @@
         <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
@@ -1358,14 +1358,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1374,10 +1374,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -1386,42 +1386,42 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1433,40 +1433,40 @@
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
+        <v>495</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
         <v>2</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1494,18 +1494,18 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45852</v>
+        <v>45853</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -1517,29 +1517,29 @@
         <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45855</v>
+        <v>45852</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>1129</v>
+        <v>495</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1550,46 +1550,46 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D32" t="n">
-        <v>1127</v>
+        <v>277</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>2</v>
       </c>
-      <c r="F32" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D33" t="n">
-        <v>1130</v>
+        <v>277</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -1598,15 +1598,15 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45853</v>
+        <v>45854</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1614,16 +1614,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>197</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>149</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1634,29 +1634,225 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>288</v>
+      </c>
+      <c r="D35" t="n">
+        <v>277</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>45852</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>288</v>
+      </c>
+      <c r="D36" t="n">
+        <v>277</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1129</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1127</v>
+      </c>
+      <c r="E38" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1130</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45855</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C40" t="n">
         <v>197</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D40" t="n">
+        <v>145</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>52</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>197</v>
+      </c>
+      <c r="D41" t="n">
+        <v>149</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>48</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>197</v>
+      </c>
+      <c r="D42" t="n">
         <v>141</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>56</v>
       </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,91 +766,91 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>316</v>
+        <v>582</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45853</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D5" t="n">
-        <v>581</v>
+        <v>316</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D6" t="n">
-        <v>579</v>
+        <v>316</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,18 +878,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D8" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -898,15 +898,15 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45854</v>
+        <v>45856</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,18 +934,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -954,26 +954,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H10" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45852</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>316</v>
+        <v>923</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -994,14 +994,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1022,14 +1022,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1038,26 +1038,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45854</v>
+        <v>45859</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1066,26 +1066,26 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45853</v>
+        <v>45856</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1097,23 +1097,23 @@
         <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45852</v>
+        <v>45855</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>896</v>
+        <v>907</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1125,23 +1125,23 @@
         <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D17" t="n">
-        <v>923</v>
+        <v>495</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,26 +1150,26 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D18" t="n">
-        <v>923</v>
+        <v>495</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,26 +1178,26 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>495</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,26 +1206,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45853</v>
+        <v>45859</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D20" t="n">
-        <v>923</v>
+        <v>277</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,26 +1234,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45852</v>
+        <v>45856</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D21" t="n">
-        <v>923</v>
+        <v>277</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1262,26 +1262,26 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>945</v>
+        <v>288</v>
       </c>
       <c r="D22" t="n">
-        <v>907</v>
+        <v>277</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1290,63 +1290,63 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D23" t="n">
-        <v>907</v>
+        <v>145</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45854</v>
+        <v>45855</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>509</v>
+        <v>1142</v>
       </c>
       <c r="D24" t="n">
-        <v>495</v>
+        <v>1129</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>12</v>
@@ -1354,505 +1354,29 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45853</v>
+        <v>45855</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D25" t="n">
-        <v>907</v>
+        <v>145</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>masterdata-fra</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>945</v>
-      </c>
-      <c r="D26" t="n">
-        <v>907</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>15</v>
-      </c>
-      <c r="H26" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>509</v>
-      </c>
-      <c r="D27" t="n">
-        <v>495</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>509</v>
-      </c>
-      <c r="D28" t="n">
-        <v>495</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2</v>
-      </c>
-      <c r="H28" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>288</v>
-      </c>
-      <c r="D29" t="n">
-        <v>277</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>2</v>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>509</v>
-      </c>
-      <c r="D30" t="n">
-        <v>495</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2</v>
-      </c>
-      <c r="H30" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>partner</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>509</v>
-      </c>
-      <c r="D31" t="n">
-        <v>495</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>288</v>
-      </c>
-      <c r="D32" t="n">
-        <v>277</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>288</v>
-      </c>
-      <c r="D33" t="n">
-        <v>277</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2</v>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>45854</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>3</v>
-      </c>
-      <c r="D34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>288</v>
-      </c>
-      <c r="D35" t="n">
-        <v>277</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H35" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>prereg</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>288</v>
-      </c>
-      <c r="D36" t="n">
-        <v>277</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>2</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1129</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1127</v>
-      </c>
-      <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>resident</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1142</v>
-      </c>
-      <c r="D39" t="n">
-        <v>1130</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>45855</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>197</v>
-      </c>
-      <c r="D40" t="n">
-        <v>145</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>52</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>197</v>
-      </c>
-      <c r="D41" t="n">
-        <v>149</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>48</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>dsl</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>197</v>
-      </c>
-      <c r="D42" t="n">
-        <v>141</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>56</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +661,7 @@
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="3" customWidth="1" min="5" max="5"/>
-    <col width="4" customWidth="1" min="6" max="6"/>
+    <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
   </cols>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,35 +794,35 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45855</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>414</v>
+        <v>1142</v>
       </c>
       <c r="D5" t="n">
-        <v>316</v>
+        <v>1129</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45856</v>
+        <v>45860</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,18 +878,18 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45856</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D8" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -898,43 +898,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H8" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45856</v>
+        <v>45855</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>197</v>
       </c>
       <c r="D9" t="n">
-        <v>896</v>
+        <v>145</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -966,14 +966,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>945</v>
       </c>
       <c r="D11" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H11" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12">
@@ -994,14 +994,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1010,15 +1010,15 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1050,14 +1050,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
@@ -1078,14 +1078,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,15 +1094,15 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1134,14 +1134,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18">
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,15 +1178,15 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1218,14 +1218,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D20" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21">
@@ -1246,14 +1246,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D21" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1265,12 +1265,12 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45855</v>
+        <v>45860</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,63 +1298,63 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="D23" t="n">
-        <v>145</v>
+        <v>277</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1142</v>
+        <v>288</v>
       </c>
       <c r="D24" t="n">
-        <v>1129</v>
+        <v>277</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45855</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1365,18 +1365,46 @@
         <v>197</v>
       </c>
       <c r="D25" t="n">
+        <v>97</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>100</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>197</v>
+      </c>
+      <c r="D26" t="n">
         <v>145</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>52</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>491</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,35 +794,35 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45855</v>
+        <v>45856</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1142</v>
+        <v>197</v>
       </c>
       <c r="D5" t="n">
-        <v>1129</v>
+        <v>145</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,30 +906,30 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45855</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>197</v>
+        <v>945</v>
       </c>
       <c r="D9" t="n">
-        <v>145</v>
+        <v>896</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -990,18 +990,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -1074,18 +1074,18 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
@@ -1158,18 +1158,18 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>945</v>
+        <v>509</v>
       </c>
       <c r="D18" t="n">
-        <v>907</v>
+        <v>495</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1242,18 +1242,18 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>prereg</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>509</v>
+        <v>288</v>
       </c>
       <c r="D21" t="n">
-        <v>495</v>
+        <v>277</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1326,35 +1326,35 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45856</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>288</v>
+        <v>1142</v>
       </c>
       <c r="D24" t="n">
-        <v>277</v>
+        <v>1124</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1365,13 +1365,13 @@
         <v>197</v>
       </c>
       <c r="D25" t="n">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
         <v>197</v>
       </c>
       <c r="D26" t="n">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,35 +710,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>auth</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>610</v>
+        <v>414</v>
       </c>
       <c r="D2" t="n">
-        <v>581</v>
+        <v>316</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,46 +794,46 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>197</v>
+        <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>145</v>
+        <v>491</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>414</v>
+        <v>945</v>
       </c>
       <c r="D6" t="n">
-        <v>316</v>
+        <v>896</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -842,15 +842,15 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,18 +906,18 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D9" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -926,26 +926,26 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H9" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>945</v>
       </c>
       <c r="D10" t="n">
-        <v>896</v>
+        <v>923</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -954,15 +954,15 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,18 +990,18 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>945</v>
       </c>
       <c r="D12" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1010,26 +1010,26 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>945</v>
       </c>
       <c r="D13" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1038,26 +1038,26 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>923</v>
+        <v>907</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -1078,14 +1078,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
@@ -1106,14 +1106,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
@@ -1134,14 +1134,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>945</v>
       </c>
       <c r="D17" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1150,15 +1150,15 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,18 +1186,18 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,26 +1206,26 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,26 +1234,26 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>277</v>
+        <v>907</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1262,15 +1262,15 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,18 +1298,18 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D23" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1321,32 +1321,32 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D24" t="n">
-        <v>1124</v>
+        <v>495</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
         <v>12</v>
@@ -1354,57 +1354,225 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D25" t="n">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>288</v>
+      </c>
+      <c r="D26" t="n">
+        <v>277</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>288</v>
+      </c>
+      <c r="D27" t="n">
+        <v>277</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>45859</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>288</v>
+      </c>
+      <c r="D28" t="n">
+        <v>277</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>6</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C30" t="n">
         <v>197</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D30" t="n">
+        <v>143</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>54</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>197</v>
+      </c>
+      <c r="D31" t="n">
         <v>97</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>100</v>
       </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>197</v>
+      </c>
+      <c r="D32" t="n">
+        <v>139</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>58</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -660,7 +660,7 @@
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="3" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="5" max="5"/>
     <col width="5" customWidth="1" min="6" max="6"/>
     <col width="4" customWidth="1" min="7" max="7"/>
     <col width="4" customWidth="1" min="8" max="8"/>
@@ -710,35 +710,35 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>idrepo</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>414</v>
+        <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G2" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>491</v>
+        <v>583</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,35 +822,35 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45862</v>
+        <v>45859</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>auth</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>945</v>
+        <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>896</v>
+        <v>491</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="G6" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45861</v>
+        <v>45863</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45860</v>
+        <v>45862</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45859</v>
+        <v>45861</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,18 +934,18 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45862</v>
+        <v>45860</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D10" t="n">
-        <v>923</v>
+        <v>316</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -954,26 +954,26 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="H10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>masterdata-ara</t>
+          <t>idrepo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>945</v>
+        <v>414</v>
       </c>
       <c r="D11" t="n">
-        <v>896</v>
+        <v>316</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -982,15 +982,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="H11" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,18 +1046,18 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45862</v>
+        <v>45861</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>945</v>
       </c>
       <c r="D14" t="n">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1069,23 +1069,23 @@
         <v>15</v>
       </c>
       <c r="H14" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45861</v>
+        <v>45860</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>945</v>
       </c>
       <c r="D15" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1094,26 +1094,26 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H15" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45860</v>
+        <v>45859</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>masterdata-eng</t>
+          <t>masterdata-ara</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>945</v>
       </c>
       <c r="D16" t="n">
-        <v>923</v>
+        <v>896</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1122,15 +1122,15 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H16" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45859</v>
+        <v>45863</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1162,14 +1162,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
-        <v>495</v>
+        <v>923</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -1190,14 +1190,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>945</v>
       </c>
       <c r="D19" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
@@ -1218,14 +1218,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>945</v>
       </c>
       <c r="D20" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
@@ -1246,14 +1246,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>masterdata-fra</t>
+          <t>masterdata-eng</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>945</v>
       </c>
       <c r="D21" t="n">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1262,26 +1262,26 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D22" t="n">
-        <v>277</v>
+        <v>907</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -1290,26 +1290,26 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45861</v>
+        <v>45862</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D23" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1318,26 +1318,26 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H23" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45860</v>
+        <v>45861</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D24" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -1346,26 +1346,26 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H24" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>partner</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>509</v>
+        <v>945</v>
       </c>
       <c r="D25" t="n">
-        <v>495</v>
+        <v>907</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1374,26 +1374,26 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H25" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45861</v>
+        <v>45859</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>masterdata-fra</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>288</v>
+        <v>945</v>
       </c>
       <c r="D26" t="n">
-        <v>277</v>
+        <v>907</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1402,26 +1402,26 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D27" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1433,23 +1433,23 @@
         <v>2</v>
       </c>
       <c r="H27" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>prereg</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>288</v>
+        <v>509</v>
       </c>
       <c r="D28" t="n">
-        <v>277</v>
+        <v>495</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1470,23 +1470,23 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1142</v>
+        <v>509</v>
       </c>
       <c r="D29" t="n">
-        <v>1124</v>
+        <v>495</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" t="n">
         <v>12</v>
@@ -1498,26 +1498,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D30" t="n">
-        <v>143</v>
+        <v>495</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -1526,53 +1526,333 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>partner</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>197</v>
+        <v>509</v>
       </c>
       <c r="D31" t="n">
-        <v>97</v>
+        <v>495</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>288</v>
+      </c>
+      <c r="D32" t="n">
+        <v>277</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>288</v>
+      </c>
+      <c r="D33" t="n">
+        <v>277</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>45861</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>288</v>
+      </c>
+      <c r="D34" t="n">
+        <v>277</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>288</v>
+      </c>
+      <c r="D35" t="n">
+        <v>277</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>prereg</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>288</v>
+      </c>
+      <c r="D36" t="n">
+        <v>277</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1117</v>
+      </c>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>dsl</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C38" t="n">
         <v>197</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D38" t="n">
+        <v>121</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>76</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>resident</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1142</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1124</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>6</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>197</v>
+      </c>
+      <c r="D40" t="n">
+        <v>143</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>54</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>197</v>
+      </c>
+      <c r="D41" t="n">
+        <v>97</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>197</v>
+      </c>
+      <c r="D42" t="n">
         <v>139</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>58</v>
       </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>263</v>
+        <v>431</v>
       </c>
       <c r="E2" t="n">
-        <v>267</v>
+        <v>151</v>
       </c>
       <c r="F2" t="n">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>147</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>581</v>
+        <v>425</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>583</v>
+        <v>263</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>491</v>
+        <v>577</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1701,13 +1701,13 @@
         <v>1142</v>
       </c>
       <c r="D37" t="n">
-        <v>1117</v>
+        <v>576</v>
       </c>
       <c r="E37" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>478</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45862</v>
+        <v>45865</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
         <v>197</v>
       </c>
       <c r="D38" t="n">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1757,13 +1757,13 @@
         <v>1142</v>
       </c>
       <c r="D39" t="n">
-        <v>1124</v>
+        <v>1100</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F39" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1774,35 +1774,35 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45860</v>
+        <v>45863</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>197</v>
+        <v>1142</v>
       </c>
       <c r="D40" t="n">
-        <v>143</v>
+        <v>1117</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F40" t="n">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45859</v>
+        <v>45862</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1813,13 +1813,13 @@
         <v>197</v>
       </c>
       <c r="D41" t="n">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45861</v>
+        <v>45864</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1841,18 +1841,46 @@
         <v>197</v>
       </c>
       <c r="D42" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>197</v>
+      </c>
+      <c r="D43" t="n">
+        <v>118</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>79</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
         <v>0</v>
       </c>
     </row>

--- a/minio-report-tracker/xlxs/dev3.xlsx
+++ b/minio-report-tracker/xlxs/dev3.xlsx
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,7 +710,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
         <v>610</v>
       </c>
       <c r="D2" t="n">
-        <v>431</v>
+        <v>569</v>
       </c>
       <c r="E2" t="n">
-        <v>151</v>
+        <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -738,7 +738,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -749,13 +749,13 @@
         <v>610</v>
       </c>
       <c r="D3" t="n">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E3" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G3" t="n">
         <v>5</v>
@@ -766,7 +766,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -777,13 +777,13 @@
         <v>610</v>
       </c>
       <c r="D4" t="n">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="E4" t="n">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -794,7 +794,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         <v>610</v>
       </c>
       <c r="D5" t="n">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="E5" t="n">
-        <v>267</v>
+        <v>150</v>
       </c>
       <c r="F5" t="n">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G5" t="n">
         <v>5</v>
@@ -822,7 +822,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
         <v>610</v>
       </c>
       <c r="D6" t="n">
-        <v>577</v>
+        <v>263</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>267</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="G6" t="n">
         <v>5</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -878,7 +878,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -906,7 +906,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -934,7 +934,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -990,7 +990,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1214,7 +1214,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1298,7 +1298,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1382,7 +1382,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1410,7 +1410,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1494,7 +1494,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>45866</v>
+        <v>45867</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1701,13 +1701,13 @@
         <v>1142</v>
       </c>
       <c r="D37" t="n">
-        <v>576</v>
+        <v>1121</v>
       </c>
       <c r="E37" t="n">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>478</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1718,63 +1718,63 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>45865</v>
+        <v>45866</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>197</v>
+        <v>1142</v>
       </c>
       <c r="D38" t="n">
-        <v>13</v>
+        <v>576</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F38" t="n">
-        <v>184</v>
+        <v>478</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>45864</v>
+        <v>45865</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>resident</t>
+          <t>dsl</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1142</v>
+        <v>197</v>
       </c>
       <c r="D39" t="n">
-        <v>1100</v>
+        <v>13</v>
       </c>
       <c r="E39" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1785,13 +1785,13 @@
         <v>1142</v>
       </c>
       <c r="D40" t="n">
-        <v>1117</v>
+        <v>1100</v>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F40" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1802,35 +1802,35 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45862</v>
+        <v>45863</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dsl</t>
+          <t>resident</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>197</v>
+        <v>1142</v>
       </c>
       <c r="D41" t="n">
-        <v>121</v>
+        <v>1117</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F41" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>45864</v>
+        <v>45866</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
         <v>197</v>
       </c>
       <c r="D42" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>45863</v>
+        <v>45864</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -1869,18 +1869,46 @@
         <v>197</v>
       </c>
       <c r="D43" t="n">
+        <v>130</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>67</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>dsl</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>197</v>
+      </c>
+      <c r="D44" t="n">
         <v>118</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>79</v>
       </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>0</v>
       </c>
     </row>
